--- a/DateBase/orders/name001_2024-10-28.xlsx
+++ b/DateBase/orders/name001_2024-10-28.xlsx
@@ -465,7 +465,7 @@
         <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F4" t="str">
-        <v>12</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0123131212</v>
+        <v>01231312112</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-10-28.xlsx
+++ b/DateBase/orders/name001_2024-10-28.xlsx
@@ -465,7 +465,7 @@
         <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F4" t="str">
-        <v>121</v>
+        <v>12123</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01231312112</v>
+        <v>0123131212312</v>
       </c>
     </row>
   </sheetData>
